--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H2">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N2">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O2">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P2">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q2">
-        <v>3.985615237048577</v>
+        <v>6.918324658135667</v>
       </c>
       <c r="R2">
-        <v>3.985615237048577</v>
+        <v>62.264921923221</v>
       </c>
       <c r="S2">
-        <v>0.07644690320119681</v>
+        <v>0.1106168829134594</v>
       </c>
       <c r="T2">
-        <v>0.07644690320119681</v>
+        <v>0.1106168829134594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H3">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N3">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O3">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P3">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q3">
-        <v>4.578702032393052</v>
+        <v>5.441912392977112</v>
       </c>
       <c r="R3">
-        <v>4.578702032393052</v>
+        <v>48.977211536794</v>
       </c>
       <c r="S3">
-        <v>0.08782272503471177</v>
+        <v>0.08701057203081151</v>
       </c>
       <c r="T3">
-        <v>0.08782272503471177</v>
+        <v>0.08701057203081153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H4">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I4">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J4">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N4">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O4">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P4">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q4">
-        <v>7.527258238112263</v>
+        <v>9.246766585318111</v>
       </c>
       <c r="R4">
-        <v>7.527258238112263</v>
+        <v>83.22089926786299</v>
       </c>
       <c r="S4">
-        <v>0.1443781066848541</v>
+        <v>0.1478462701939544</v>
       </c>
       <c r="T4">
-        <v>0.1443781066848541</v>
+        <v>0.1478462701939544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.00404790960648</v>
+        <v>2.015377</v>
       </c>
       <c r="H5">
-        <v>2.00404790960648</v>
+        <v>6.046131</v>
       </c>
       <c r="I5">
-        <v>0.5220311232597504</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J5">
-        <v>0.5220311232597504</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N5">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O5">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P5">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q5">
-        <v>6.741067448986105</v>
+        <v>9.902508535829</v>
       </c>
       <c r="R5">
-        <v>6.741067448986105</v>
+        <v>89.122576822461</v>
       </c>
       <c r="S5">
-        <v>0.1292984144467979</v>
+        <v>0.1583309083318606</v>
       </c>
       <c r="T5">
-        <v>0.1292984144467979</v>
+        <v>0.1583309083318606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.00404790960648</v>
+        <v>2.015377</v>
       </c>
       <c r="H6">
-        <v>2.00404790960648</v>
+        <v>6.046131</v>
       </c>
       <c r="I6">
-        <v>0.5220311232597504</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J6">
-        <v>0.5220311232597504</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N6">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O6">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P6">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q6">
-        <v>7.744184371401513</v>
+        <v>7.789253408239333</v>
       </c>
       <c r="R6">
-        <v>7.744184371401513</v>
+        <v>70.10328067415401</v>
       </c>
       <c r="S6">
-        <v>0.1485389024784926</v>
+        <v>0.1245421362568237</v>
       </c>
       <c r="T6">
-        <v>0.1485389024784926</v>
+        <v>0.1245421362568237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.00404790960648</v>
+        <v>2.015377</v>
       </c>
       <c r="H7">
-        <v>2.00404790960648</v>
+        <v>6.046131</v>
       </c>
       <c r="I7">
-        <v>0.5220311232597504</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J7">
-        <v>0.5220311232597504</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N7">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O7">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P7">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q7">
-        <v>12.7312227776975</v>
+        <v>13.23531195262033</v>
       </c>
       <c r="R7">
-        <v>12.7312227776975</v>
+        <v>119.117807573583</v>
       </c>
       <c r="S7">
-        <v>0.24419380633446</v>
+        <v>0.2116190009765518</v>
       </c>
       <c r="T7">
-        <v>0.24419380633446</v>
+        <v>0.2116190009765518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.650014271556533</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H8">
-        <v>0.650014271556533</v>
+        <v>1.956731</v>
       </c>
       <c r="I8">
-        <v>0.1693211418194871</v>
+        <v>0.1600342292965385</v>
       </c>
       <c r="J8">
-        <v>0.1693211418194871</v>
+        <v>0.1600342292965385</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.36372569571443</v>
+        <v>4.913477</v>
       </c>
       <c r="N8">
-        <v>3.36372569571443</v>
+        <v>14.740431</v>
       </c>
       <c r="O8">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918886</v>
       </c>
       <c r="P8">
-        <v>0.2476833443175035</v>
+        <v>0.3201889893918885</v>
       </c>
       <c r="Q8">
-        <v>2.186469707815808</v>
+        <v>3.204784254562334</v>
       </c>
       <c r="R8">
-        <v>2.186469707815808</v>
+        <v>28.843058291061</v>
       </c>
       <c r="S8">
-        <v>0.04193802666950886</v>
+        <v>0.05124119814656844</v>
       </c>
       <c r="T8">
-        <v>0.04193802666950886</v>
+        <v>0.05124119814656843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.650014271556533</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H9">
-        <v>0.650014271556533</v>
+        <v>1.956731</v>
       </c>
       <c r="I9">
-        <v>0.1693211418194871</v>
+        <v>0.1600342292965385</v>
       </c>
       <c r="J9">
-        <v>0.1693211418194871</v>
+        <v>0.1600342292965385</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.86427107569608</v>
+        <v>3.864911333333334</v>
       </c>
       <c r="N9">
-        <v>3.86427107569608</v>
+        <v>11.594734</v>
       </c>
       <c r="O9">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="P9">
-        <v>0.2845403192648019</v>
+        <v>0.2518587252793198</v>
       </c>
       <c r="Q9">
-        <v>2.511831348365568</v>
+        <v>2.520863939394889</v>
       </c>
       <c r="R9">
-        <v>2.511831348365568</v>
+        <v>22.687775454554</v>
       </c>
       <c r="S9">
-        <v>0.04817869175159766</v>
+        <v>0.04030601699168457</v>
       </c>
       <c r="T9">
-        <v>0.04817869175159766</v>
+        <v>0.04030601699168457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.650014271556533</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H10">
-        <v>0.650014271556533</v>
+        <v>1.956731</v>
       </c>
       <c r="I10">
-        <v>0.1693211418194871</v>
+        <v>0.1600342292965385</v>
       </c>
       <c r="J10">
-        <v>0.1693211418194871</v>
+        <v>0.1600342292965385</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.35275370247882</v>
+        <v>6.567164333333333</v>
       </c>
       <c r="N10">
-        <v>6.35275370247882</v>
+        <v>19.701493</v>
       </c>
       <c r="O10">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287917</v>
       </c>
       <c r="P10">
-        <v>0.4677763364176946</v>
+        <v>0.4279522853287916</v>
       </c>
       <c r="Q10">
-        <v>4.129380570294838</v>
+        <v>4.283391344375889</v>
       </c>
       <c r="R10">
-        <v>4.129380570294838</v>
+        <v>38.550522099383</v>
       </c>
       <c r="S10">
-        <v>0.07920442339838056</v>
+        <v>0.06848701415828554</v>
       </c>
       <c r="T10">
-        <v>0.07920442339838056</v>
+        <v>0.06848701415828554</v>
       </c>
     </row>
   </sheetData>
